--- a/biology/Zoologie/Antaresia_maculosa/Antaresia_maculosa.xlsx
+++ b/biology/Zoologie/Antaresia_maculosa/Antaresia_maculosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">le Python tacheté (Antaresia maculosa) est une espèce de serpents de la famille des Pythonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le Python tacheté (Antaresia maculosa) est une espèce de serpents de la famille des Pythonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Australie, dans l'Est du Queensland et en Nouvelle-Galles du Sud ;
 dans le sud de la Papouasie-Nouvelle-Guinée.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adulte, il mesure de 100 cm à 170 cm pour les plus grands et peut vivre 15 ans. C'est un serpent constricteur ovipare.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est surtout terrestre et il vit sur les zones rocailleuses.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1873 : Über eine neue Schildkrötenart, Cinosternon effeldtii und einige andere neue oder weniger bekannte Amphibien. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1873, p. 603-618 (texte intégral).</t>
         </is>
